--- a/medicine/Sexualité et sexologie/Attache-moi_!/Attache-moi_!.xlsx
+++ b/medicine/Sexualité et sexologie/Attache-moi_!/Attache-moi_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attache-moi ! (¡Átame!) est un film espagnol réalisé par Pedro Almodóvar, sorti en 1990, avec Victoria Abril et Antonio Banderas. 
 Almodóvar nous livre ici une des histoires qui ont fait sa célébrité, où sexualité, amour, haine et violence ne font en fait qu'un. Peut-être le film le plus optimiste du réalisateur.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marina est une actrice porno, cherchant à faire carrière dans le cinéma « traditionnel ». Une nuit, elle a couché avec un jeune marginal nommé Ricky, qu'elle ne connaissait pas. Depuis, Ricky a fait un séjour dans un hôpital psychiatrique, où il a nourri l'espoir de retrouver Marina et de vivre avec elle. À peine sorti de l'hôpital, il décide de séquestrer Marina dans son propre appartement, espérant la séduire.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : ¡Átame!
 Titre français : Attache-moi!
@@ -551,17 +567,17 @@
 Année : 1990
 Réalisation : Pedro Almodóvar
 Scénario : Pedro Almodóvar
-Producteurs : Enrique Posner, Agustín Almodóvar[1]
+Producteurs : Enrique Posner, Agustín Almodóvar
 Sociétés de production : El Deseo
 Sociétés de distribution :  PolyGram Film Distribution
-Directeur de production : Esther García[2]
+Directeur de production : Esther García
 Direction artistique : Ferrán Sánchez
 Musique : Ennio Morricone
 Photographie : José Luis Alcaine
 Montage : José Salcedo
 Décors : Esther García
 Costumes : José María De Cossío
-Maquillage : Jorge Hernández et Juan Pedro Hernández[3]
+Maquillage : Jorge Hernández et Juan Pedro Hernández
 Langue : Espagnol
 Format : Couleur - 1,85:1 - Format 35 mm - Dolby
 Genre : Comédie noire et comédie érotique
@@ -570,7 +586,7 @@
  Espagne : 22 janvier 1990
  France : 20 juin 1990
  États-Unis : 4 mai 1990
-Recette[4] :
+Recette :
  Espagne : 1 326 119 entrées en salle.
  France : 467 603 entrées en salle.</t>
         </is>
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Victoria Abril (VF : elle-même) : Marina Osorio
 Antonio Banderas (VF : Serge Faliu) : Ricky
